--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="06-09-2017" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Work Priority</t>
   </si>
@@ -70,6 +70,40 @@
   </si>
   <si>
     <t>News Letter User Management</t>
+  </si>
+  <si>
+    <t>Pending Work</t>
+  </si>
+  <si>
+    <t>In Menu While Clicking Next if there is no Menu Added Show No Recipes Found.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>While Clicking Edit in Swag it is showing "Edit Recipe " in pop up. Instead need to show editing Swag</t>
+  </si>
+  <si>
+    <t>In Reviews Listing instead of "Reviewer" change to "Nickname", Rating Percentage in Stars, and status in
+text Enable or Disable, Add New Column "Type"=&gt; Guest/Customer. New Column "Email".</t>
+  </si>
+  <si>
+    <t>In Swag Add Price and Quantity is Mandatory</t>
+  </si>
+  <si>
+    <t>In Subscription List Change Status 1=&gt; Enable</t>
+  </si>
+  <si>
+    <t>In Ingredient Remove Delete button instead Show Status enable/disable</t>
+  </si>
+  <si>
+    <t>In Portions Remove Delete button instead Show Status enable/disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot Password </t>
   </si>
 </sst>
 </file>
@@ -113,9 +147,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -569,13 +609,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="98.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1"/>
+    <row r="11" spans="1:2" ht="30" customHeight="1"/>
+    <row r="12" spans="1:2" ht="30" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Work Priority</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">Forgot Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By Default if it is less than 10 pagination should not come ==&gt;check portion/ingredient module</t>
+  </si>
+  <si>
+    <t>User Module :  While Clicking Add Pop up showing  "Edit Customer"</t>
   </si>
 </sst>
 </file>
@@ -611,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -693,8 +699,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1"/>
-    <row r="11" spans="1:2" ht="30" customHeight="1"/>
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Work Priority</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>User Module :  While Clicking Add Pop up showing  "Edit Customer"</t>
+  </si>
+  <si>
+    <t>While clicking submit button in Edit Profile Loader is not Showing</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -715,7 +718,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1"/>
+    <row r="12" spans="1:2" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Work Priority</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>While clicking submit button in Edit Profile Loader is not Showing</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Initially while editing it is showing add then it is changing to Edit. This must be changed need to show only edit</t>
+  </si>
+  <si>
+    <t>While clicking pagination in ingredient and portion load need to come</t>
+  </si>
+  <si>
+    <t>While Clicking next and previous in Menu Loader required</t>
+  </si>
+  <si>
+    <t>Not Fixed now it is showing both</t>
+  </si>
+  <si>
+    <t>Not Fixed Still loader is not coming</t>
+  </si>
+  <si>
+    <t>Not Working while clicking link from email empty page shows</t>
+  </si>
+  <si>
+    <t>while  clicking add recipe showing error</t>
   </si>
 </sst>
 </file>
@@ -618,19 +642,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="98.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -638,31 +663,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1">
+    <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -670,62 +698,107 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="21" customHeight="1"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1"/>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1"/>
+    <row r="20" spans="1:2" ht="21" customHeight="1"/>
+    <row r="21" spans="1:2" ht="21" customHeight="1"/>
+    <row r="22" spans="1:2" ht="21" customHeight="1"/>
+    <row r="23" spans="1:2" ht="21" customHeight="1"/>
+    <row r="24" spans="1:2" ht="21" customHeight="1"/>
+    <row r="25" spans="1:2" ht="21" customHeight="1"/>
+    <row r="26" spans="1:2" ht="21" customHeight="1"/>
+    <row r="27" spans="1:2" ht="21" customHeight="1"/>
+    <row r="28" spans="1:2" ht="21" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="06-09-2017" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin-oct-02-2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Work Priority</t>
   </si>
@@ -130,13 +130,32 @@
     <t>Not Fixed now it is showing both</t>
   </si>
   <si>
-    <t>Not Fixed Still loader is not coming</t>
-  </si>
-  <si>
-    <t>Not Working while clicking link from email empty page shows</t>
-  </si>
-  <si>
     <t>while  clicking add recipe showing error</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Recipe After Adding Should Redirect to Recipe Listing Page</t>
+  </si>
+  <si>
+    <t>Recipe Pdf Is not uploading</t>
+  </si>
+  <si>
+    <t>while Edit Recipe The images are removed</t>
+  </si>
+  <si>
+    <t>Last Added Recipe Need To come First</t>
+  </si>
+  <si>
+    <t>Admin Recipe</t>
+  </si>
+  <si>
+    <t>Admin Swag</t>
+  </si>
+  <si>
+    <t>Swag Listing service url is wrong below is the service pls check for the correct parameters
+http://freshbox.white-space-studio-dev.com/webservices/swag/list.php</t>
   </si>
 </sst>
 </file>
@@ -485,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -644,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -676,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -695,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1">
@@ -727,10 +744,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1">
@@ -757,10 +771,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1">
@@ -783,7 +794,7 @@
     <row r="17" spans="1:2" ht="21" customHeight="1"/>
     <row r="18" spans="1:2" ht="21" customHeight="1">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -807,12 +818,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="110" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1"/>
+    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" customHeight="1"/>
+    <row r="11" spans="1:2" ht="30" customHeight="1"/>
+    <row r="12" spans="1:2" ht="30" customHeight="1"/>
+    <row r="13" spans="1:2" ht="30" customHeight="1"/>
+    <row r="14" spans="1:2" ht="30" customHeight="1"/>
+    <row r="15" spans="1:2" ht="30" customHeight="1"/>
+    <row r="16" spans="1:2" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
+    <row r="18" ht="30" customHeight="1"/>
+    <row r="19" ht="30" customHeight="1"/>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="30" customHeight="1"/>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="23" ht="30" customHeight="1"/>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="30" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Work Priority</t>
   </si>
@@ -156,6 +156,40 @@
   <si>
     <t>Swag Listing service url is wrong below is the service pls check for the correct parameters
 http://freshbox.white-space-studio-dev.com/webservices/swag/list.php</t>
+  </si>
+  <si>
+    <t>Swag Add also not storing the right parameters Please check the Below service url
+http://freshbox.white-space-studio-dev.com/webservices/swag/add.php</t>
+  </si>
+  <si>
+    <t>While Editing Swag Images  Disappear</t>
+  </si>
+  <si>
+    <t>Last Added Swag Should need to display first</t>
+  </si>
+  <si>
+    <t>While Clicking Add in Pop up it is showing Add Customer as well as Edit Customer both</t>
+  </si>
+  <si>
+    <t>Last Added  Users Should come first</t>
+  </si>
+  <si>
+    <t>While Clicking Pagination page loader need to occurs</t>
+  </si>
+  <si>
+    <t>Users Admin</t>
+  </si>
+  <si>
+    <t>Reviews Admin</t>
+  </si>
+  <si>
+    <t>Remove Add Button in Review Listing</t>
+  </si>
+  <si>
+    <t>Subscribers</t>
+  </si>
+  <si>
+    <t>Remove Add Button from the Subscriber list</t>
   </si>
 </sst>
 </file>
@@ -818,10 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -888,22 +922,87 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1"/>
-    <row r="11" spans="1:2" ht="30" customHeight="1"/>
+    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" ht="30" customHeight="1"/>
-    <row r="13" spans="1:2" ht="30" customHeight="1"/>
+    <row r="13" spans="1:2" ht="30" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="14" spans="1:2" ht="30" customHeight="1"/>
-    <row r="15" spans="1:2" ht="30" customHeight="1"/>
+    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-    <row r="18" ht="30" customHeight="1"/>
-    <row r="19" ht="30" customHeight="1"/>
-    <row r="20" ht="30" customHeight="1"/>
-    <row r="21" ht="30" customHeight="1"/>
-    <row r="22" ht="30" customHeight="1"/>
-    <row r="23" ht="30" customHeight="1"/>
-    <row r="24" ht="30" customHeight="1"/>
-    <row r="25" ht="30" customHeight="1"/>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1"/>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1"/>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Work Priority</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>Remove Add Button from the Subscriber list</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>While visiting recipe Detail page and returning back to listing the loading content is not disappearing</t>
+  </si>
+  <si>
+    <t>Footer Need to be Aligned Properly</t>
+  </si>
+  <si>
+    <t>Swag Link is Removed please add it in the footer</t>
   </si>
 </sst>
 </file>
@@ -852,10 +864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,6 +1003,9 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1"/>
     <row r="25" spans="1:2" ht="30" customHeight="1">
@@ -1002,7 +1017,48 @@
       <c r="A26" t="s">
         <v>56</v>
       </c>
-    </row>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1"/>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1"/>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1"/>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1"/>
+    <row r="37" spans="1:2" ht="30" customHeight="1"/>
+    <row r="38" spans="1:2" ht="30" customHeight="1"/>
+    <row r="39" spans="1:2" ht="30" customHeight="1"/>
+    <row r="40" spans="1:2" ht="30" customHeight="1"/>
+    <row r="41" spans="1:2" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Work Priority</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Swag Link is Removed please add it in the footer</t>
+  </si>
+  <si>
+    <t>Admin Module Add</t>
+  </si>
+  <si>
+    <t>Testimonial Module</t>
+  </si>
+  <si>
+    <t>Faq Module</t>
   </si>
 </sst>
 </file>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -254,6 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1054,10 +1064,28 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1"/>
-    <row r="37" spans="1:2" ht="30" customHeight="1"/>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" ht="30" customHeight="1"/>
-    <row r="39" spans="1:2" ht="30" customHeight="1"/>
-    <row r="40" spans="1:2" ht="30" customHeight="1"/>
+    <row r="39" spans="1:2" ht="30" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="41" spans="1:2" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Work Priority</t>
   </si>
@@ -719,7 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -876,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,7 +932,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1"/>
+    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>44</v>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="06-09-2017" sheetId="2" r:id="rId2"/>
     <sheet name="Admin-oct-02-2017" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Work Priority</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Faq Module</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -234,12 +237,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -264,6 +273,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -719,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1047,11 +1057,11 @@
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1"/>
     <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
+      <c r="B31" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" customHeight="1"/>

--- a/resource/Pending Works.xlsx
+++ b/resource/Pending Works.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Admin-oct-02-2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Work Priority</t>
   </si>
@@ -211,6 +212,24 @@
   </si>
   <si>
     <t>Faq Module</t>
+  </si>
+  <si>
+    <t>oct-08-2017 status</t>
+  </si>
+  <si>
+    <t>Swag Images are not deleted even though I deleted a image.</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Bugt the Loader is not visible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While creating user if the user Email is already Exists. Then it should show the email already exis error. </t>
+  </si>
+  <si>
+    <t>In Menu Listing .display Recipe Description only 4 Lines…</t>
   </si>
 </sst>
 </file>
@@ -876,226 +895,324 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="110" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1">
+    <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1">
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1">
+    <row r="11" spans="1:3" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1"/>
-    <row r="13" spans="1:2" ht="30" customHeight="1">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1"/>
+    <row r="13" spans="1:3" ht="30" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1"/>
-    <row r="15" spans="1:2" ht="30" customHeight="1">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1"/>
+    <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" t="s">
         <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1"/>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1"/>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1"/>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1"/>
+    <row r="24" spans="1:4" ht="30" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1"/>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1"/>
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" t="s">
+    <row r="28" spans="1:4" ht="30" customHeight="1">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1"/>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" ht="30" customHeight="1"/>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1"/>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1"/>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1"/>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1"/>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
+      <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1"/>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1"/>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1"/>
-    <row r="39" spans="1:2" ht="30" customHeight="1">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:3" ht="30" customHeight="1"/>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" customHeight="1"/>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
